--- a/doc/pjp.xlsx
+++ b/doc/pjp.xlsx
@@ -7690,8 +7690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P618"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="D424" workbookViewId="0">
+      <selection activeCell="P435" sqref="P435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -34791,8 +34791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E611" workbookViewId="0">
+      <selection activeCell="J617" sqref="J617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -49002,11 +49002,11 @@
         <v>1</v>
       </c>
       <c r="I432" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J432" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0445','ຮ້ານ ສົມຫວັງ ວົງສຸພັດ','1','6','ສີຫອມ','2022201144','MON','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0445','ຮ້ານ ສົມຫວັງ ວົງສຸພັດ','1','6','ສີຫອມ','2022201144','MON','1',curdate());</v>
       </c>
     </row>
     <row r="433" spans="1:10">
@@ -49033,11 +49033,11 @@
         <v>1</v>
       </c>
       <c r="I433" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J433" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0421','ນາງ ມະນີວັນ ເທບພະລັງສີ','1','6','ເຕສອງ','','MON','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0421','ນາງ ມະນີວັນ ເທບພະລັງສີ','1','6','ເຕສອງ','','MON','1',curdate());</v>
       </c>
     </row>
     <row r="434" spans="1:10">
@@ -49066,11 +49066,11 @@
         <v>1</v>
       </c>
       <c r="I434" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J434" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ລວມອາໄຫຼ່','1','6','ໜອງດ້ວງເໜືອ','2059504888','MON','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ລວມອາໄຫຼ່','1','6','ໜອງດ້ວງເໜືອ','2059504888','MON','1',curdate());</v>
       </c>
     </row>
     <row r="435" spans="1:10">
@@ -49099,11 +49099,11 @@
         <v>1</v>
       </c>
       <c r="I435" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J435" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0144','ຮ້ານ ແສງເພັດ ການຢາງ','1','6','ດົງນາທອງ','2055068889','MON','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0144','ຮ້ານ ແສງເພັດ ການຢາງ','1','6','ດົງນາທອງ','2055068889','MON','1',curdate());</v>
       </c>
     </row>
     <row r="436" spans="1:10">
@@ -49132,11 +49132,11 @@
         <v>1</v>
       </c>
       <c r="I436" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J436" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ PK ສ້ອມແປງ','1','6','ໜອງແຕ່ງ','2058997937','MON','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ PK ສ້ອມແປງ','1','6','ໜອງແຕ່ງ','2058997937','MON','1',curdate());</v>
       </c>
     </row>
     <row r="437" spans="1:10">
@@ -49165,11 +49165,11 @@
         <v>1</v>
       </c>
       <c r="I437" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J437" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ TK ສ້ອມແປງ','1','6','ໜອງແຕ່ງ','2055889225','MON','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ TK ສ້ອມແປງ','1','6','ໜອງແຕ່ງ','2055889225','MON','1',curdate());</v>
       </c>
     </row>
     <row r="438" spans="1:10">
@@ -49198,11 +49198,11 @@
         <v>1</v>
       </c>
       <c r="I438" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J438" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ແກ້ວ ລ້າງອັດສີດ','1','6','ໜອງແຕ່ງ','2059811116','MON','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ແກ້ວ ລ້າງອັດສີດ','1','6','ໜອງແຕ່ງ','2059811116','MON','1',curdate());</v>
       </c>
     </row>
     <row r="439" spans="1:10">
@@ -49231,11 +49231,11 @@
         <v>1</v>
       </c>
       <c r="I439" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J439" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ແຄັດວິໄລ ສ້ອມແປງ','1','6','ໜອງແຕ່ງ','2052388895','MON','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ແຄັດວິໄລ ສ້ອມແປງ','1','6','ໜອງແຕ່ງ','2052388895','MON','1',curdate());</v>
       </c>
     </row>
     <row r="440" spans="1:10">
@@ -49264,11 +49264,11 @@
         <v>1</v>
       </c>
       <c r="I440" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J440" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຕຸ້ຍ ບໍລິການ','1','6','ໜອງດາ','2054555653','MON','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຕຸ້ຍ ບໍລິການ','1','6','ໜອງດາ','2054555653','MON','1',curdate());</v>
       </c>
     </row>
     <row r="441" spans="1:10">
@@ -49297,11 +49297,11 @@
         <v>1</v>
       </c>
       <c r="I441" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J441" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທະວີໂຊກໄຊ ອາໄຫຼ່','1','6','ເກົ້າລ້ຽວ','2056999284','MON','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທະວີໂຊກໄຊ ອາໄຫຼ່','1','6','ເກົ້າລ້ຽວ','2056999284','MON','1',curdate());</v>
       </c>
     </row>
     <row r="442" spans="1:10">
@@ -49330,11 +49330,11 @@
         <v>1</v>
       </c>
       <c r="I442" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J442" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0424','ຮ້ານ ທ້າວ ຜາສຸກ ສ້ອມແປງລົດຈັກ','1','1','ຂວາຫຼວງ','2077444838','TUE','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0424','ຮ້ານ ທ້າວ ຜາສຸກ ສ້ອມແປງລົດຈັກ','1','1','ຂວາຫຼວງ','2077444838','TUE','1',curdate());</v>
       </c>
     </row>
     <row r="443" spans="1:10">
@@ -49363,11 +49363,11 @@
         <v>1</v>
       </c>
       <c r="I443" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J443" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0426','ຮ້ານ ເບົ້າ ສ້ອມແປງ','1','6','ທົ່ງສ້າງນາງ','2059586663','TUE','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0426','ຮ້ານ ເບົ້າ ສ້ອມແປງ','1','6','ທົ່ງສ້າງນາງ','2059586663','TUE','1',curdate());</v>
       </c>
     </row>
     <row r="444" spans="1:10">
@@ -49396,11 +49396,11 @@
         <v>1</v>
       </c>
       <c r="I444" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J444" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0053','ຮ້ານ P.K ບໍລິການ','1','1','ທົ່ງສ້າງນາງ','2055663199','TUE','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0053','ຮ້ານ P.K ບໍລິການ','1','1','ທົ່ງສ້າງນາງ','2055663199','TUE','1',curdate());</v>
       </c>
     </row>
     <row r="445" spans="1:10">
@@ -49429,11 +49429,11 @@
         <v>1</v>
       </c>
       <c r="I445" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J445" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0332','ຮ້ານ ເກຍ','1','1','ສີບຸນເຮືອງ','55402255','TUE','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0332','ຮ້ານ ເກຍ','1','1','ສີບຸນເຮືອງ','55402255','TUE','1',curdate());</v>
       </c>
     </row>
     <row r="446" spans="1:10">
@@ -49462,11 +49462,11 @@
         <v>1</v>
       </c>
       <c r="I446" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J446" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0426','ປ້ຳນ້ຳມັນສິງແກ້ວ','1','1','ໂພນສະອາດ','2055519008','TUE','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0426','ປ້ຳນ້ຳມັນສິງແກ້ວ','1','1','ໂພນສະອາດ','2055519008','TUE','1',curdate());</v>
       </c>
     </row>
     <row r="447" spans="1:10">
@@ -49495,11 +49495,11 @@
         <v>1</v>
       </c>
       <c r="I447" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J447" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-0043','ຮ້ານ ວິທະວັດ','1','1','ໜອງສ້າງທໍ່','55552266','TUE','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-0043','ຮ້ານ ວິທະວັດ','1','1','ໜອງສ້າງທໍ່','55552266','TUE','1',curdate());</v>
       </c>
     </row>
     <row r="448" spans="1:10">
@@ -49528,11 +49528,11 @@
         <v>1</v>
       </c>
       <c r="I448" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J448" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ສົນ ບໍລິການ','1','1','ໂພນຕ້ອງ','2095851463','TUE','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ສົນ ບໍລິການ','1','1','ໂພນຕ້ອງ','2095851463','TUE','1',curdate());</v>
       </c>
     </row>
     <row r="449" spans="1:10">
@@ -49561,11 +49561,11 @@
         <v>1</v>
       </c>
       <c r="I449" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J449" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທຳທອງ ບໍລິການ','1','1','ດອນແດງ','2096355591','TUE','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທຳທອງ ບໍລິການ','1','1','ດອນແດງ','2096355591','TUE','1',curdate());</v>
       </c>
     </row>
     <row r="450" spans="1:10" ht="19.5" thickBot="1">
@@ -49594,11 +49594,11 @@
         <v>1</v>
       </c>
       <c r="I450" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J450" t="str">
         <f t="shared" si="6"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ພຸດທະວົງ ບໍລິການ','1','1','ດົງປາແຫຼບ','2055400416','TUE','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ພຸດທະວົງ ບໍລິການ','1','1','ດົງປາແຫຼບ','2055400416','TUE','1',curdate());</v>
       </c>
     </row>
     <row r="451" spans="1:10">
@@ -49627,11 +49627,11 @@
         <v>1</v>
       </c>
       <c r="I451" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J451" t="str">
         <f t="shared" ref="J451:J514" si="7">"insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('"&amp;I451&amp;"','"&amp;A451&amp;"','"&amp;B451&amp;"','"&amp;D451&amp;"','"&amp;E451&amp;"','"&amp;F451&amp;"','"&amp;G451&amp;"','"&amp;C451&amp;"','"&amp;H451&amp;"',curdate());"</f>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ອຸດົມ ການຊ່າງ','1','9','ໜອງພະຍາ','2022255986','WED','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ອຸດົມ ການຊ່າງ','1','9','ໜອງພະຍາ','2022255986','WED','1',curdate());</v>
       </c>
     </row>
     <row r="452" spans="1:10">
@@ -49660,11 +49660,11 @@
         <v>1</v>
       </c>
       <c r="I452" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J452" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001','ຮ້ານ ສົມໄຊ ອາໄຫຼ່','1','9','ໜອງພະຍາ','2055336533','WED','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001','ຮ້ານ ສົມໄຊ ອາໄຫຼ່','1','9','ໜອງພະຍາ','2055336533','WED','1',curdate());</v>
       </c>
     </row>
     <row r="453" spans="1:10">
@@ -49693,11 +49693,11 @@
         <v>1</v>
       </c>
       <c r="I453" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J453" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ວີເຄອິມ ໂອໂຕ','1','9','ໜອງພະຍາ','2022444244','WED','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ວີເຄອິມ ໂອໂຕ','1','9','ໜອງພະຍາ','2022444244','WED','1',curdate());</v>
       </c>
     </row>
     <row r="454" spans="1:10">
@@ -49726,11 +49726,11 @@
         <v>1</v>
       </c>
       <c r="I454" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J454" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ໂກະ ບໍລິການ','1','9','ຕານມີໄຊ','304449149','WED','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ໂກະ ບໍລິການ','1','9','ຕານມີໄຊ','304449149','WED','1',curdate());</v>
       </c>
     </row>
     <row r="455" spans="1:10">
@@ -49759,11 +49759,11 @@
         <v>1</v>
       </c>
       <c r="I455" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J455" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ເປີ້ຍ ບໍລິການ','1','9','ນາທົ່ມ','2095600808','WED','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ເປີ້ຍ ບໍລິການ','1','9','ນາທົ່ມ','2095600808','WED','1',curdate());</v>
       </c>
     </row>
     <row r="456" spans="1:10">
@@ -49792,11 +49792,11 @@
         <v>1</v>
       </c>
       <c r="I456" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J456" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ໂດ່ງ ບໍລິການ','1','9','ນາທົ່ມ','2098452998','WED','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ໂດ່ງ ບໍລິການ','1','9','ນາທົ່ມ','2098452998','WED','1',curdate());</v>
       </c>
     </row>
     <row r="457" spans="1:10">
@@ -49825,11 +49825,11 @@
         <v>1</v>
       </c>
       <c r="I457" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J457" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ BL ບໍລິການ','1','9','ຫ້ວຍເຕີຍ','2056333399','WED','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ BL ບໍລິການ','1','9','ຫ້ວຍເຕີຍ','2056333399','WED','1',curdate());</v>
       </c>
     </row>
     <row r="458" spans="1:10">
@@ -49858,11 +49858,11 @@
         <v>1</v>
       </c>
       <c r="I458" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J458" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ແຈັກ ບໍລິການລ້າງອັດສີດ','1','9','ຫ້ວຍເຕີຍ','2052212697','WED','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ແຈັກ ບໍລິການລ້າງອັດສີດ','1','9','ຫ້ວຍເຕີຍ','2052212697','WED','1',curdate());</v>
       </c>
     </row>
     <row r="459" spans="1:10">
@@ -49891,11 +49891,11 @@
         <v>1</v>
       </c>
       <c r="I459" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J459" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-0021','ຮ້ານ ລ້າງອັດສີດ','1','1','ດົງປ່າແຫລບ','55663353','WED','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-0021','ຮ້ານ ລ້າງອັດສີດ','1','1','ດົງປ່າແຫລບ','55663353','WED','1',curdate());</v>
       </c>
     </row>
     <row r="460" spans="1:10">
@@ -49924,11 +49924,11 @@
         <v>1</v>
       </c>
       <c r="I460" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J460" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ອາຈີ້ມ ຂາຍອາໄຫຼ່','1','2','ຫຼັກ8','2055285668','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ອາຈີ້ມ ຂາຍອາໄຫຼ່','1','2','ຫຼັກ8','2055285668','THU','1',curdate());</v>
       </c>
     </row>
     <row r="461" spans="1:10">
@@ -49957,11 +49957,11 @@
         <v>1</v>
       </c>
       <c r="I461" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J461" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ອາເວິນ ບໍລິການ','1','2','ຫຼັກ8','2056862880','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ອາເວິນ ບໍລິການ','1','2','ຫຼັກ8','2056862880','THU','1',curdate());</v>
       </c>
     </row>
     <row r="462" spans="1:10">
@@ -49990,11 +49990,11 @@
         <v>1</v>
       </c>
       <c r="I462" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J462" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ສິງທອງ ບໍລິການ','1','2','ສົມຫວັງ','2058591119','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ສິງທອງ ບໍລິການ','1','2','ສົມຫວັງ','2058591119','THU','1',curdate());</v>
       </c>
     </row>
     <row r="463" spans="1:10" ht="19.5" thickBot="1">
@@ -50023,11 +50023,11 @@
         <v>1</v>
       </c>
       <c r="I463" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J463" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ໂອເວັ້ນ ປະດັບຍົນ','1','2','ສົມຫວັງ','2055443354','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ໂອເວັ້ນ ປະດັບຍົນ','1','2','ສົມຫວັງ','2055443354','THU','1',curdate());</v>
       </c>
     </row>
     <row r="464" spans="1:10">
@@ -50056,11 +50056,11 @@
         <v>1</v>
       </c>
       <c r="I464" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J464" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ໂຈ້ ບໍລິການ','1','8','ຊຽງດາ','305856783','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ໂຈ້ ບໍລິການ','1','8','ຊຽງດາ','305856783','THU','1',curdate());</v>
       </c>
     </row>
     <row r="465" spans="1:10">
@@ -50089,11 +50089,11 @@
         <v>1</v>
       </c>
       <c r="I465" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J465" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001',' ຮ້ານ ຊ່າງແຫຼ້ ບໍລິການ','1','8','ຊຽງດາ','2093320038','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001',' ຮ້ານ ຊ່າງແຫຼ້ ບໍລິການ','1','8','ຊຽງດາ','2093320038','THU','1',curdate());</v>
       </c>
     </row>
     <row r="466" spans="1:10">
@@ -50122,11 +50122,11 @@
         <v>1</v>
       </c>
       <c r="I466" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J466" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ພອນໄຊ ບໍລິການ','1','8','ຊຽງດາ','2054538190','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ພອນໄຊ ບໍລິການ','1','8','ຊຽງດາ','2054538190','THU','1',curdate());</v>
       </c>
     </row>
     <row r="467" spans="1:10">
@@ -50155,11 +50155,11 @@
         <v>1</v>
       </c>
       <c r="I467" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J467" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ເອກ ມໍເຕີ້','1','8','ຊຽງດາ','309744774','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ເອກ ມໍເຕີ້','1','8','ຊຽງດາ','309744774','THU','1',curdate());</v>
       </c>
     </row>
     <row r="468" spans="1:10">
@@ -50188,11 +50188,11 @@
         <v>1</v>
       </c>
       <c r="I468" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J468" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຄຳຮຸ່ງ ບໍລິການ','1','8','ເມືອງນ້ອຍ','2056169919','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຄຳຮຸ່ງ ບໍລິການ','1','8','ເມືອງນ້ອຍ','2056169919','THU','1',curdate());</v>
       </c>
     </row>
     <row r="469" spans="1:10">
@@ -50221,11 +50221,11 @@
         <v>1</v>
       </c>
       <c r="I469" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J469" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ກັນ ສ້ອມແປງ','1','8','ເມືອງນ້ອຍ','2055572051','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ກັນ ສ້ອມແປງ','1','8','ເມືອງນ້ອຍ','2055572051','THU','1',curdate());</v>
       </c>
     </row>
     <row r="470" spans="1:10">
@@ -50254,11 +50254,11 @@
         <v>1</v>
       </c>
       <c r="I470" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J470" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຕ່າຍ ສ້ອມແປງ','1','8','ເມືອງນ້ອຍ','2055335539','THU','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຕ່າຍ ສ້ອມແປງ','1','8','ເມືອງນ້ອຍ','2055335539','THU','1',curdate());</v>
       </c>
     </row>
     <row r="471" spans="1:10">
@@ -50287,11 +50287,11 @@
         <v>1</v>
       </c>
       <c r="I471" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J471" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ວົງ ສ້ອມແປງ','1','9','ພະຂາວ','2022242271','FRI','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ວົງ ສ້ອມແປງ','1','9','ພະຂາວ','2022242271','FRI','1',curdate());</v>
       </c>
     </row>
     <row r="472" spans="1:10">
@@ -50320,11 +50320,11 @@
         <v>1</v>
       </c>
       <c r="I472" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J472" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຊ່າງສິນ ບໍລິການ','1','9','ພະຂາວ','302229965','FRI','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຊ່າງສິນ ບໍລິການ','1','9','ພະຂາວ','302229965','FRI','1',curdate());</v>
       </c>
     </row>
     <row r="473" spans="1:10">
@@ -50353,11 +50353,11 @@
         <v>1</v>
       </c>
       <c r="I473" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J473" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຊ່າງສີ ບໍລິການ','1','9','ພະຂາວ','2096399972','FRI','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຊ່າງສີ ບໍລິການ','1','9','ພະຂາວ','2096399972','FRI','1',curdate());</v>
       </c>
     </row>
     <row r="474" spans="1:10">
@@ -50386,11 +50386,11 @@
         <v>1</v>
       </c>
       <c r="I474" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J474" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0536','ຮ້ານ ແຂກ ບໍລິການ','1','9','ຊ້າງຄູ້','304697922','FRI','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0536','ຮ້ານ ແຂກ ບໍລິການ','1','9','ຊ້າງຄູ້','304697922','FRI','1',curdate());</v>
       </c>
     </row>
     <row r="475" spans="1:10">
@@ -50416,11 +50416,11 @@
         <v>1</v>
       </c>
       <c r="I475" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J475" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','','ຮ້ານ ສົມສະໄຫວ ອາໄຫຼ່','1','9','ຊ້າງຄູ່','2055959989','FRI','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','','ຮ້ານ ສົມສະໄຫວ ອາໄຫຼ່','1','9','ຊ້າງຄູ່','2055959989','FRI','1',curdate());</v>
       </c>
     </row>
     <row r="476" spans="1:10">
@@ -50446,11 +50446,11 @@
         <v>1</v>
       </c>
       <c r="I476" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J476" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','','ຮ້ານ ຄຳໄຊ ອາໄຫຼ່','1','9','ຊ້າງຄູ່','2055514822','FRI','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','','ຮ້ານ ຄຳໄຊ ອາໄຫຼ່','1','9','ຊ້າງຄູ່','2055514822','FRI','1',curdate());</v>
       </c>
     </row>
     <row r="477" spans="1:10">
@@ -50479,11 +50479,11 @@
         <v>1</v>
       </c>
       <c r="I477" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J477" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ເພັດ ບໍລິການ','1','9','ດົງໂດກ','2099766186','FRI','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ເພັດ ບໍລິການ','1','9','ດົງໂດກ','2099766186','FRI','1',curdate());</v>
       </c>
     </row>
     <row r="478" spans="1:10">
@@ -50509,11 +50509,11 @@
         <v>1</v>
       </c>
       <c r="I478" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J478" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','','ຮ້ານ ສີທັດ ບໍລິການ','1','9','ໜອງວຽງຄຳ','2088667998','FRI','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','','ຮ້ານ ສີທັດ ບໍລິການ','1','9','ໜອງວຽງຄຳ','2088667998','FRI','1',curdate());</v>
       </c>
     </row>
     <row r="479" spans="1:10">
@@ -50542,11 +50542,11 @@
         <v>1</v>
       </c>
       <c r="I479" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J479" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຫອມ ສ້ອມແປງ','1','9','ໜອງວຽງຄຳ','2099202025','FRI','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຫອມ ສ້ອມແປງ','1','9','ໜອງວຽງຄຳ','2099202025','FRI','1',curdate());</v>
       </c>
     </row>
     <row r="480" spans="1:10" ht="19.5" thickBot="1">
@@ -50575,11 +50575,11 @@
         <v>1</v>
       </c>
       <c r="I480" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J480" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຂຼ່ໂມ້ ອາໄຫຼ່','1','9','ໜອງວຽງຄຳ','2028000851','FRI','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຂຼ່ໂມ້ ອາໄຫຼ່','1','9','ໜອງວຽງຄຳ','2028000851','FRI','1',curdate());</v>
       </c>
     </row>
     <row r="481" spans="1:10">
@@ -50608,11 +50608,11 @@
         <v>1</v>
       </c>
       <c r="I481" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J481" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0441','ຮ້ານ ຄຳແສນ ອາໄຫຼ່','1','6','ໜອງໜ້ຽວ','2059496833','SAT','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0441','ຮ້ານ ຄຳແສນ ອາໄຫຼ່','1','6','ໜອງໜ້ຽວ','2059496833','SAT','1',curdate());</v>
       </c>
     </row>
     <row r="482" spans="1:10">
@@ -50641,11 +50641,11 @@
         <v>1</v>
       </c>
       <c r="I482" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J482" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0357','ຮ້ານ ຊ້າງ ສ້ອມແປງ','1','6','ໜອງບົວທອງN','22203981','SAT','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0357','ຮ້ານ ຊ້າງ ສ້ອມແປງ','1','6','ໜອງບົວທອງN','22203981','SAT','1',curdate());</v>
       </c>
     </row>
     <row r="483" spans="1:10">
@@ -50674,11 +50674,11 @@
         <v>1</v>
       </c>
       <c r="I483" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J483" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0355','ຮ້ານ ແລ້ງ','1','6','ໜອງບົວທອງN','55737488','SAT','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0355','ຮ້ານ ແລ້ງ','1','6','ໜອງບົວທອງN','55737488','SAT','1',curdate());</v>
       </c>
     </row>
     <row r="484" spans="1:10">
@@ -50707,11 +50707,11 @@
         <v>1</v>
       </c>
       <c r="I484" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J484" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0425','ຮ້ານ ຄຳລຽນ','1','6','ຂວາຫຼວງ','21250579','SAT','1',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0425','ຮ້ານ ຄຳລຽນ','1','6','ຂວາຫຼວງ','21250579','SAT','1',curdate());</v>
       </c>
     </row>
     <row r="485" spans="1:10">
@@ -50740,11 +50740,11 @@
         <v>2</v>
       </c>
       <c r="I485" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J485" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0424','ຮ້ານ ທ້າວ ຜາສຸກ ສ້ອມແປງລົດຈັກ','1','1','ຂວາຫຼວງ','2077444838','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0424','ຮ້ານ ທ້າວ ຜາສຸກ ສ້ອມແປງລົດຈັກ','1','1','ຂວາຫຼວງ','2077444838','MON','2',curdate());</v>
       </c>
     </row>
     <row r="486" spans="1:10">
@@ -50771,11 +50771,11 @@
         <v>2</v>
       </c>
       <c r="I486" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J486" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0543','ຮ້ານ ​ແຂກ ສ້ອມ​ແປງ','1','1','ຫ້ວຍຫົງ','','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0543','ຮ້ານ ​ແຂກ ສ້ອມ​ແປງ','1','1','ຫ້ວຍຫົງ','','MON','2',curdate());</v>
       </c>
     </row>
     <row r="487" spans="1:10">
@@ -50804,11 +50804,11 @@
         <v>2</v>
       </c>
       <c r="I487" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J487" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0029','ຮ້ານ ດິວອນ ສ້ອມແປງ','1','1','ຫ້ວຍຫົງ','22555876','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0029','ຮ້ານ ດິວອນ ສ້ອມແປງ','1','1','ຫ້ວຍຫົງ','22555876','MON','2',curdate());</v>
       </c>
     </row>
     <row r="488" spans="1:10">
@@ -50837,11 +50837,11 @@
         <v>2</v>
       </c>
       <c r="I488" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J488" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','C-586-001-038','ຮ້ານ ພົມມາ ລ້າງອັດສີດ','1','9','ດົງໂດກ','2097778313','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','C-586-001-038','ຮ້ານ ພົມມາ ລ້າງອັດສີດ','1','9','ດົງໂດກ','2097778313','MON','2',curdate());</v>
       </c>
     </row>
     <row r="489" spans="1:10">
@@ -50870,11 +50870,11 @@
         <v>2</v>
       </c>
       <c r="I489" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J489" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0541','ຮ້ານ ສຸບັນ ບໍລິການ','1','9','ຕານມີໄຊ','2055017479','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0541','ຮ້ານ ສຸບັນ ບໍລິການ','1','9','ຕານມີໄຊ','2055017479','MON','2',curdate());</v>
       </c>
     </row>
     <row r="490" spans="1:10">
@@ -50903,11 +50903,11 @@
         <v>2</v>
       </c>
       <c r="I490" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J490" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0030','ຮ້ານ ບຸນມີ','1','9','ຕານມີໄຊ','77520136','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0030','ຮ້ານ ບຸນມີ','1','9','ຕານມີໄຊ','77520136','MON','2',curdate());</v>
       </c>
     </row>
     <row r="491" spans="1:10">
@@ -50936,11 +50936,11 @@
         <v>2</v>
       </c>
       <c r="I491" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J491" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ໂຈ້ ຈະເລີນຊັບ','1','9','ຫ້ວຍເຕີຍ','2095499998','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ໂຈ້ ຈະເລີນຊັບ','1','9','ຫ້ວຍເຕີຍ','2095499998','MON','2',curdate());</v>
       </c>
     </row>
     <row r="492" spans="1:10">
@@ -50969,11 +50969,11 @@
         <v>2</v>
       </c>
       <c r="I492" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J492" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ວຸດທິໄຊ ລ້າງອັດສີດ','1','9','ຫ້ວຍເຕີຍ','2055211372','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ວຸດທິໄຊ ລ້າງອັດສີດ','1','9','ຫ້ວຍເຕີຍ','2055211372','MON','2',curdate());</v>
       </c>
     </row>
     <row r="493" spans="1:10">
@@ -51002,11 +51002,11 @@
         <v>2</v>
       </c>
       <c r="I493" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J493" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0456','ຮ້ານ ບີນ ບໍລິການ','1','9','ອຸດົມຜົນ','2055812934','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0456','ຮ້ານ ບີນ ບໍລິການ','1','9','ອຸດົມຜົນ','2055812934','MON','2',curdate());</v>
       </c>
     </row>
     <row r="494" spans="1:10">
@@ -51035,11 +51035,11 @@
         <v>2</v>
       </c>
       <c r="I494" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J494" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0569','ຮ້ານ ຄຳປຸ່ນ ບໍລິການ','1','9','ອຸດົມຜົນ','2054133739','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0569','ຮ້ານ ຄຳປຸ່ນ ບໍລິການ','1','9','ອຸດົມຜົນ','2054133739','MON','2',curdate());</v>
       </c>
     </row>
     <row r="495" spans="1:10">
@@ -51065,11 +51065,11 @@
         <v>2</v>
       </c>
       <c r="I495" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J495" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','','ອູ່ ຜາສຸກ ລ້າງອັດສີດ','1','9','ໂນນສະອາດ','2059445819','MON','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','','ອູ່ ຜາສຸກ ລ້າງອັດສີດ','1','9','ໂນນສະອາດ','2059445819','MON','2',curdate());</v>
       </c>
     </row>
     <row r="496" spans="1:10">
@@ -51098,11 +51098,11 @@
         <v>2</v>
       </c>
       <c r="I496" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J496" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001','ຮ້ານ ແສງພະຈັນ ອາໄຫຼ່','1','4','ໄຊມຸງຄຸນ','2099510999','Tue','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001','ຮ້ານ ແສງພະຈັນ ອາໄຫຼ່','1','4','ໄຊມຸງຄຸນ','2099510999','Tue','2',curdate());</v>
       </c>
     </row>
     <row r="497" spans="1:10">
@@ -51131,11 +51131,11 @@
         <v>2</v>
       </c>
       <c r="I497" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J497" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001','ຮ້ານ ແຮັບປີ້ ອາໄຫຼ່','1','4','ໄຊມຸງຄຸນ','2055669066','Tue','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001','ຮ້ານ ແຮັບປີ້ ອາໄຫຼ່','1','4','ໄຊມຸງຄຸນ','2055669066','Tue','2',curdate());</v>
       </c>
     </row>
     <row r="498" spans="1:10">
@@ -51164,11 +51164,11 @@
         <v>2</v>
       </c>
       <c r="I498" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J498" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຫຼຸມຄຳ ບໍລິການ','1','4','ໄຊມຸງຄຸນ','2097275559','Tue','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຫຼຸມຄຳ ບໍລິການ','1','4','ໄຊມຸງຄຸນ','2097275559','Tue','2',curdate());</v>
       </c>
     </row>
     <row r="499" spans="1:10">
@@ -51195,11 +51195,11 @@
         <v>2</v>
       </c>
       <c r="I499" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J499" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ວຽງສະຫວັນ ບໍລິການ','1','6','ໜອງໜ້ຽວ','','Tue','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ວຽງສະຫວັນ ບໍລິການ','1','6','ໜອງໜ້ຽວ','','Tue','2',curdate());</v>
       </c>
     </row>
     <row r="500" spans="1:10">
@@ -51226,11 +51226,11 @@
         <v>2</v>
       </c>
       <c r="I500" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J500" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','C-586-001-112','ປ້ຳ ໄຊທອງພູນ ບໍລິການ','1','6','ປາກທ້າງ','','Tue','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','C-586-001-112','ປ້ຳ ໄຊທອງພູນ ບໍລິການ','1','6','ປາກທ້າງ','','Tue','2',curdate());</v>
       </c>
     </row>
     <row r="501" spans="1:10">
@@ -51259,11 +51259,11 @@
         <v>2</v>
       </c>
       <c r="I501" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J501" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ບໍລິສັດ ລືໄຊຊະນະ','1','4','ສີເກີດ','2022887444','Tue','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ບໍລິສັດ ລືໄຊຊະນະ','1','4','ສີເກີດ','2022887444','Tue','2',curdate());</v>
       </c>
     </row>
     <row r="502" spans="1:10">
@@ -51292,11 +51292,11 @@
         <v>2</v>
       </c>
       <c r="I502" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J502" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ບໍລິສັດ ເອສວີພີ ຈຳກັດ','1','4','ສີເກີດ','2055589499','Tue','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ບໍລິສັດ ເອສວີພີ ຈຳກັດ','1','4','ສີເກີດ','2055589499','Tue','2',curdate());</v>
       </c>
     </row>
     <row r="503" spans="1:10">
@@ -51325,11 +51325,11 @@
         <v>2</v>
       </c>
       <c r="I503" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J503" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ OK Speed','1','4','ສີເກີດ','2056408550','Tue','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ OK Speed','1','4','ສີເກີດ','2056408550','Tue','2',curdate());</v>
       </c>
     </row>
     <row r="504" spans="1:10">
@@ -51358,11 +51358,11 @@
         <v>2</v>
       </c>
       <c r="I504" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J504" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','C-586-001-038','ຮ້ານ ພົມມາ ລ້າງອັດສີດ','1','9','ດົງໂດກ','2097778313','WED','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','C-586-001-038','ຮ້ານ ພົມມາ ລ້າງອັດສີດ','1','9','ດົງໂດກ','2097778313','WED','2',curdate());</v>
       </c>
     </row>
     <row r="505" spans="1:10">
@@ -51391,11 +51391,11 @@
         <v>2</v>
       </c>
       <c r="I505" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J505" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ອູ່ ໂຊກຈະເລີນ ບໍລິການ','1','9','ດອນໜູນ','2055314777','WED','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ອູ່ ໂຊກຈະເລີນ ບໍລິການ','1','9','ດອນໜູນ','2055314777','WED','2',curdate());</v>
       </c>
     </row>
     <row r="506" spans="1:10">
@@ -51424,11 +51424,11 @@
         <v>2</v>
       </c>
       <c r="I506" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J506" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ອາດ ບໍລິການ','1','9','ດອນຕິ້ວ','2097982324','WED','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ອາດ ບໍລິການ','1','9','ດອນຕິ້ວ','2097982324','WED','2',curdate());</v>
       </c>
     </row>
     <row r="507" spans="1:10">
@@ -51457,11 +51457,11 @@
         <v>2</v>
       </c>
       <c r="I507" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J507" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຄຳພອນ ບໍລິການ','1','9','ດອນຕິ້ວ','2055280245','WED','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຄຳພອນ ບໍລິການ','1','9','ດອນຕິ້ວ','2055280245','WED','2',curdate());</v>
       </c>
     </row>
     <row r="508" spans="1:10">
@@ -51490,11 +51490,11 @@
         <v>2</v>
       </c>
       <c r="I508" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J508" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ໄຊ ສ້ອມແປງ','1','9','ດອນຕິ້ວ','2055418983','WED','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ໄຊ ສ້ອມແປງ','1','9','ດອນຕິ້ວ','2055418983','WED','2',curdate());</v>
       </c>
     </row>
     <row r="509" spans="1:10">
@@ -51523,11 +51523,11 @@
         <v>2</v>
       </c>
       <c r="I509" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J509" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ອູ່ ຄຳເພັດ ຈະເລີນຍົນ','1','9','ດ່ານຊ້າງ','2055615984','WED','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ອູ່ ຄຳເພັດ ຈະເລີນຍົນ','1','9','ດ່ານຊ້າງ','2055615984','WED','2',curdate());</v>
       </c>
     </row>
     <row r="510" spans="1:10">
@@ -51556,11 +51556,11 @@
         <v>2</v>
       </c>
       <c r="I510" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J510" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ບຸນລ້ອມ ບໍລິການ','1','9','ດ່ານຊ້າງ','2056895111','WED','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ບຸນລ້ອມ ບໍລິການ','1','9','ດ່ານຊ້າງ','2056895111','WED','2',curdate());</v>
       </c>
     </row>
     <row r="511" spans="1:10" ht="19.5" thickBot="1">
@@ -51589,11 +51589,11 @@
         <v>2</v>
       </c>
       <c r="I511" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J511" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ໜູນພຽນພູນຊັບ ບໍລິການ','1','9','ໂນນສະອາດ','2091673667','WED','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ໜູນພຽນພູນຊັບ ບໍລິການ','1','9','ໂນນສະອາດ','2091673667','WED','2',curdate());</v>
       </c>
     </row>
     <row r="512" spans="1:10">
@@ -51622,11 +51622,11 @@
         <v>2</v>
       </c>
       <c r="I512" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J512" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0317','ຮ້ານ ຄຳຈັນ','1','2','ສົມຫວັງ','2056778544','THU','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0317','ຮ້ານ ຄຳຈັນ','1','2','ສົມຫວັງ','2056778544','THU','2',curdate());</v>
       </c>
     </row>
     <row r="513" spans="1:10">
@@ -51655,11 +51655,11 @@
         <v>2</v>
       </c>
       <c r="I513" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J513" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0327','ຮ້ານ ທ້າວ ກຸ່ຍ ສ້ອມແປງ','1','2','ສາລະຄຳ','55719782','THU','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0327','ຮ້ານ ທ້າວ ກຸ່ຍ ສ້ອມແປງ','1','2','ສາລະຄຳ','55719782','THU','2',curdate());</v>
       </c>
     </row>
     <row r="514" spans="1:10">
@@ -51686,11 +51686,11 @@
         <v>2</v>
       </c>
       <c r="I514" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J514" t="str">
         <f t="shared" si="7"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0563','ຮ້ານ ຄານ ບໍລິການ','1','2','ພ້າວ','','THU','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0563','ຮ້ານ ຄານ ບໍລິການ','1','2','ພ້າວ','','THU','2',curdate());</v>
       </c>
     </row>
     <row r="515" spans="1:10">
@@ -51719,11 +51719,11 @@
         <v>2</v>
       </c>
       <c r="I515" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J515" t="str">
         <f t="shared" ref="J515:J578" si="8">"insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('"&amp;I515&amp;"','"&amp;A515&amp;"','"&amp;B515&amp;"','"&amp;D515&amp;"','"&amp;E515&amp;"','"&amp;F515&amp;"','"&amp;G515&amp;"','"&amp;C515&amp;"','"&amp;H515&amp;"',curdate());"</f>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຊ່າງຍາ ບໍລິການ','1','2','ໜອງໄຮ','2095180949','THU','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຊ່າງຍາ ບໍລິການ','1','2','ໜອງໄຮ','2095180949','THU','2',curdate());</v>
       </c>
     </row>
     <row r="516" spans="1:10">
@@ -51752,11 +51752,11 @@
         <v>2</v>
       </c>
       <c r="I516" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J516" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-0316','ຮ້ານ ສົມຄິດ ການຢາງ','1','2','ຫາດຊາຍຂາວ','77333334','THU','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-0316','ຮ້ານ ສົມຄິດ ການຢາງ','1','2','ຫາດຊາຍຂາວ','77333334','THU','2',curdate());</v>
       </c>
     </row>
     <row r="517" spans="1:10">
@@ -51785,11 +51785,11 @@
         <v>2</v>
       </c>
       <c r="I517" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J517" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-0220','ຮ້ານ ສົມບູນ ອາໄຫລ່','1','8','ຮ່ອງແກ','2099963775','FRI','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-0220','ຮ້ານ ສົມບູນ ອາໄຫລ່','1','8','ຮ່ອງແກ','2099963775','FRI','2',curdate());</v>
       </c>
     </row>
     <row r="518" spans="1:10">
@@ -51818,11 +51818,11 @@
         <v>2</v>
       </c>
       <c r="I518" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J518" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0395','ປ້ຳວຽງຈະເລີນ','1','8','ທາດຫລວງ','021- 414728','FRI','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0395','ປ້ຳວຽງຈະເລີນ','1','8','ທາດຫລວງ','021- 414728','FRI','2',curdate());</v>
       </c>
     </row>
     <row r="519" spans="1:10">
@@ -51851,11 +51851,11 @@
         <v>2</v>
       </c>
       <c r="I519" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J519" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0422','T-KUSTOM','1','8','ທາດຂາວ','2022212898','FRI','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0422','T-KUSTOM','1','8','ທາດຂາວ','2022212898','FRI','2',curdate());</v>
       </c>
     </row>
     <row r="520" spans="1:10">
@@ -51884,11 +51884,11 @@
         <v>2</v>
       </c>
       <c r="I520" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J520" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0224','ຮ້ານ TSL','1','8','ໂພນປ່າເປົ້າ','030 9818968','FRI','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0224','ຮ້ານ TSL','1','8','ໂພນປ່າເປົ້າ','030 9818968','FRI','2',curdate());</v>
       </c>
     </row>
     <row r="521" spans="1:10">
@@ -51917,11 +51917,11 @@
         <v>2</v>
       </c>
       <c r="I521" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J521" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','C-586-001-003','ຮ້ານ ຈິດສະໄໝ ການຢາງ','1','7','ໂພນປາເປົ້າ','2055696559','FRI','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','C-586-001-003','ຮ້ານ ຈິດສະໄໝ ການຢາງ','1','7','ໂພນປາເປົ້າ','2055696559','FRI','2',curdate());</v>
       </c>
     </row>
     <row r="522" spans="1:10">
@@ -51950,11 +51950,11 @@
         <v>2</v>
       </c>
       <c r="I522" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J522" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ LF CARCLUB','1','8','ດອນກອຍ','2028928289','FRI','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ LF CARCLUB','1','8','ດອນກອຍ','2028928289','FRI','2',curdate());</v>
       </c>
     </row>
     <row r="523" spans="1:10">
@@ -51983,11 +51983,11 @@
         <v>2</v>
       </c>
       <c r="I523" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J523" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-0227','ຮ້ານ ສົມຈັນ ຂາຍລົດ','1','8','ດອນກອຍ','2055507923','FRI','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-0227','ຮ້ານ ສົມຈັນ ຂາຍລົດ','1','8','ດອນກອຍ','2055507923','FRI','2',curdate());</v>
       </c>
     </row>
     <row r="524" spans="1:10">
@@ -52016,11 +52016,11 @@
         <v>2</v>
       </c>
       <c r="I524" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J524" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0231','ຮ້ານ 7ເຄ ບໍລິການ','1','8','ດອນກອຍ','2055505088','FRI','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0231','ຮ້ານ 7ເຄ ບໍລິການ','1','8','ດອນກອຍ','2055505088','FRI','2',curdate());</v>
       </c>
     </row>
     <row r="525" spans="1:10">
@@ -52049,11 +52049,11 @@
         <v>2</v>
       </c>
       <c r="I525" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J525" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0230','ຮ້ານ ລີຊ້າ ອັດສີດ','1','8','ດອນກອຍ','2055003370','FRI','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0230','ຮ້ານ ລີຊ້າ ອັດສີດ','1','8','ດອນກອຍ','2055003370','FRI','2',curdate());</v>
       </c>
     </row>
     <row r="526" spans="1:10">
@@ -52082,11 +52082,11 @@
         <v>2</v>
       </c>
       <c r="I526" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J526" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0298','ຮ້ານ ໂພ​ໄຊ​ຈະ​ເລີນ','1','7','ສວນມອນ','021 480918','SAT','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0298','ຮ້ານ ໂພ​ໄຊ​ຈະ​ເລີນ','1','7','ສວນມອນ','021 480918','SAT','2',curdate());</v>
       </c>
     </row>
     <row r="527" spans="1:10">
@@ -52115,11 +52115,11 @@
         <v>2</v>
       </c>
       <c r="I527" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J527" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0300','ຮ້ານ ບຸນເພັງ ອັດສີດ','1','7','ສວນມອນ','2057637777','SAT','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0300','ຮ້ານ ບຸນເພັງ ອັດສີດ','1','7','ສວນມອນ','2057637777','SAT','2',curdate());</v>
       </c>
     </row>
     <row r="528" spans="1:10">
@@ -52148,11 +52148,11 @@
         <v>2</v>
       </c>
       <c r="I528" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J528" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-0446','ບໍລິສັດ ສຸວັນນີ ອິນເຕີເທຣດ','1','7','ດົງສະຫວາດ','2056274781','SAT','2',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-0446','ບໍລິສັດ ສຸວັນນີ ອິນເຕີເທຣດ','1','7','ດົງສະຫວາດ','2056274781','SAT','2',curdate());</v>
       </c>
     </row>
     <row r="529" spans="1:10">
@@ -52181,11 +52181,11 @@
         <v>3</v>
       </c>
       <c r="I529" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J529" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-','ຮ່ານ ເຊິນໂຈ ອາໄຫຼ່','1','6','ໜອງດ້ວງ','2056015752','MON','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-','ຮ່ານ ເຊິນໂຈ ອາໄຫຼ່','1','6','ໜອງດ້ວງ','2056015752','MON','3',curdate());</v>
       </c>
     </row>
     <row r="530" spans="1:10">
@@ -52214,11 +52214,11 @@
         <v>3</v>
       </c>
       <c r="I530" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J530" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ອາເມັ່ງ ອາໄລ່','1','6','ໜອງດ້ວງ','21215044','MON','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ອາເມັ່ງ ອາໄລ່','1','6','ໜອງດ້ວງ','21215044','MON','3',curdate());</v>
       </c>
     </row>
     <row r="531" spans="1:10">
@@ -52247,11 +52247,11 @@
         <v>3</v>
       </c>
       <c r="I531" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J531" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0577','ຮ້ານ ທຸຍ ສ້ອມແປງລົດຈັກ','1','6','ອາກາດ','2059194289','MON','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0577','ຮ້ານ ທຸຍ ສ້ອມແປງລົດຈັກ','1','6','ອາກາດ','2059194289','MON','3',curdate());</v>
       </c>
     </row>
     <row r="532" spans="1:10">
@@ -52280,11 +52280,11 @@
         <v>3</v>
       </c>
       <c r="I532" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J532" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','C-586-001-058','ຮ້ານ ສຸລິດາ ຈໍາໜ່າຍອາໄຫຼ່','1','6','ໜອງດ້ວງ','021 250636','MON','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','C-586-001-058','ຮ້ານ ສຸລິດາ ຈໍາໜ່າຍອາໄຫຼ່','1','6','ໜອງດ້ວງ','021 250636','MON','3',curdate());</v>
       </c>
     </row>
     <row r="533" spans="1:10">
@@ -52313,11 +52313,11 @@
         <v>3</v>
       </c>
       <c r="I533" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J533" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0156','ຮ້ານ ເຕືອນໃຈ','1','6','ໜອງດ້ວງ','021 216777','MON','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0156','ຮ້ານ ເຕືອນໃຈ','1','6','ໜອງດ້ວງ','021 216777','MON','3',curdate());</v>
       </c>
     </row>
     <row r="534" spans="1:10">
@@ -52346,11 +52346,11 @@
         <v>3</v>
       </c>
       <c r="I534" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J534" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0157','ຮ້ານ ໄຊປະເສີດ','1','6','ໜອງດ້ວງ','99334438/030 2263344','MON','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0157','ຮ້ານ ໄຊປະເສີດ','1','6','ໜອງດ້ວງ','99334438/030 2263344','MON','3',curdate());</v>
       </c>
     </row>
     <row r="535" spans="1:10">
@@ -52379,11 +52379,11 @@
         <v>3</v>
       </c>
       <c r="I535" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J535" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','R-586-001-0096','ຮ້ານ ຄຳໄຊ','1','9','ຊ້າງຄູ້','309265067','TUE','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','R-586-001-0096','ຮ້ານ ຄຳໄຊ','1','9','ຊ້າງຄູ້','309265067','TUE','3',curdate());</v>
       </c>
     </row>
     <row r="536" spans="1:10">
@@ -52410,11 +52410,11 @@
         <v>3</v>
       </c>
       <c r="I536" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J536" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0379','ຮ້ານ ສົມສັກສັກ ໂອໂຈຊາວ1','1','9','ພະຂາວ','','TUE','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0379','ຮ້ານ ສົມສັກສັກ ໂອໂຈຊາວ1','1','9','ພະຂາວ','','TUE','3',curdate());</v>
       </c>
     </row>
     <row r="537" spans="1:10">
@@ -52443,11 +52443,11 @@
         <v>3</v>
       </c>
       <c r="I537" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J537" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0525','ຮ້ານ ຕຸ້ຍ ສາຂາ 2','1','9','ໂຊກນ້ອຍ','020 22410054','TUE','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0525','ຮ້ານ ຕຸ້ຍ ສາຂາ 2','1','9','ໂຊກນ້ອຍ','020 22410054','TUE','3',curdate());</v>
       </c>
     </row>
     <row r="538" spans="1:10">
@@ -52476,11 +52476,11 @@
         <v>3</v>
       </c>
       <c r="I538" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J538" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ເຄພີ ຈະເລີນການຢາງ','1','9','ໂຊກນ້ອຍ','020 22666282','TUE','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ເຄພີ ຈະເລີນການຢາງ','1','9','ໂຊກນ້ອຍ','020 22666282','TUE','3',curdate());</v>
       </c>
     </row>
     <row r="539" spans="1:10">
@@ -52509,11 +52509,11 @@
         <v>3</v>
       </c>
       <c r="I539" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J539" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0527','ຮ້ານ ສ້ອມແປງວຽງຊໍາທະລັງສີ','1','9','ໂຊກນ້ອຍ','020 55954691/020 55959632','TUE','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0527','ຮ້ານ ສ້ອມແປງວຽງຊໍາທະລັງສີ','1','9','ໂຊກນ້ອຍ','020 55954691/020 55959632','TUE','3',curdate());</v>
       </c>
     </row>
     <row r="540" spans="1:10">
@@ -52542,11 +52542,11 @@
         <v>3</v>
       </c>
       <c r="I540" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J540" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0531','ຮ້ານ ຊໍາແຄ້','1','9','ຊໍາແຄ້','2098870888','TUE','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0531','ຮ້ານ ຊໍາແຄ້','1','9','ຊໍາແຄ້','2098870888','TUE','3',curdate());</v>
       </c>
     </row>
     <row r="541" spans="1:10">
@@ -52575,11 +52575,11 @@
         <v>3</v>
       </c>
       <c r="I541" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J541" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-0390','ຮ້ານ ດວງຈັນ','1','8','ວຽງຈະເລີນ','020 5504110/020569208','WED','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-0390','ຮ້ານ ດວງຈັນ','1','8','ວຽງຈະເລີນ','020 5504110/020569208','WED','3',curdate());</v>
       </c>
     </row>
     <row r="542" spans="1:10">
@@ -52608,11 +52608,11 @@
         <v>3</v>
       </c>
       <c r="I542" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J542" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0436','ຮ້ານ ມິດລາວ ໂອໂຕ ເຊີວິດ ສ່ວນບຸກຄົນ','1','8','ໂພນພະເນົາ','2055518841','WED','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0436','ຮ້ານ ມິດລາວ ໂອໂຕ ເຊີວິດ ສ່ວນບຸກຄົນ','1','8','ໂພນພະເນົາ','2055518841','WED','3',curdate());</v>
       </c>
     </row>
     <row r="543" spans="1:10">
@@ -52641,11 +52641,11 @@
         <v>3</v>
       </c>
       <c r="I543" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J543" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0444','ຮ້ານ ຄົງ ສ້ອມແປງ','1','8','ໜອງໜ່ຽງ','205555219','WED','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0444','ຮ້ານ ຄົງ ສ້ອມແປງ','1','8','ໜອງໜ່ຽງ','205555219','WED','3',curdate());</v>
       </c>
     </row>
     <row r="544" spans="1:10">
@@ -52672,11 +52672,11 @@
         <v>3</v>
       </c>
       <c r="I544" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J544" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0550','ຮ້ານ ສຸລິຍັນ ບໍລິການ','1','8','ໜອງໜ່ຽງ','','WED','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0550','ຮ້ານ ສຸລິຍັນ ບໍລິການ','1','8','ໜອງໜ່ຽງ','','WED','3',curdate());</v>
       </c>
     </row>
     <row r="545" spans="1:10">
@@ -52705,11 +52705,11 @@
         <v>3</v>
       </c>
       <c r="I545" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J545" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0556','ຮ້ານ ສັງວຽນ ບໍລິກາານ','1','8','ວັງຊາຍ','020 54495755','WED','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0556','ຮ້ານ ສັງວຽນ ບໍລິກາານ','1','8','ວັງຊາຍ','020 54495755','WED','3',curdate());</v>
       </c>
     </row>
     <row r="546" spans="1:10">
@@ -52738,11 +52738,11 @@
         <v>3</v>
       </c>
       <c r="I546" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J546" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','C-586-001-105','ບໍລິສັດ ພີເຄ ບໍລິການ','1','8','ຫົວຂວາ','2054444743','WED','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','C-586-001-105','ບໍລິສັດ ພີເຄ ບໍລິການ','1','8','ຫົວຂວາ','2054444743','WED','3',curdate());</v>
       </c>
     </row>
     <row r="547" spans="1:10">
@@ -52771,11 +52771,11 @@
         <v>3</v>
       </c>
       <c r="I547" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J547" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0587','ທ້າວ ມະໂນໄທ ຈ້າງຊ້ອຍເພັດ','1','8','ໂນນຄໍ້','2055415966','WED','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0587','ທ້າວ ມະໂນໄທ ຈ້າງຊ້ອຍເພັດ','1','8','ໂນນຄໍ້','2055415966','WED','3',curdate());</v>
       </c>
     </row>
     <row r="548" spans="1:10">
@@ -52804,11 +52804,11 @@
         <v>3</v>
       </c>
       <c r="I548" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J548" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0714','ຮ້ານ ຈະເລີນຊັບ','1','7','ດອນກອຍ','020 52229333','WED','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0714','ຮ້ານ ຈະເລີນຊັບ','1','7','ດອນກອຍ','020 52229333','WED','3',curdate());</v>
       </c>
     </row>
     <row r="549" spans="1:10">
@@ -52837,11 +52837,11 @@
         <v>3</v>
       </c>
       <c r="I549" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J549" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ສົມມະນີ','1','7','ທົ່ງກາງ','02055676459','THU','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ສົມມະນີ','1','7','ທົ່ງກາງ','02055676459','THU','3',curdate());</v>
       </c>
     </row>
     <row r="550" spans="1:10">
@@ -52870,11 +52870,11 @@
         <v>3</v>
       </c>
       <c r="I550" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J550" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ຕ້າ','1','7','ສະພານທອງໃຕ້','0205435110','THU','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ຕ້າ','1','7','ສະພານທອງໃຕ້','0205435110','THU','3',curdate());</v>
       </c>
     </row>
     <row r="551" spans="1:10">
@@ -52903,11 +52903,11 @@
         <v>3</v>
       </c>
       <c r="I551" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J551" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ບີ້','1','7','ສວນມອນ','0305229969','THU','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ບີ້','1','7','ສວນມອນ','0305229969','THU','3',curdate());</v>
       </c>
     </row>
     <row r="552" spans="1:10">
@@ -52936,11 +52936,11 @@
         <v>3</v>
       </c>
       <c r="I552" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J552" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຂັນຄຳ ບໍລິການ','1','2','ທ່ານາ','2023788806','THU','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຂັນຄຳ ບໍລິການ','1','2','ທ່ານາ','2023788806','THU','3',curdate());</v>
       </c>
     </row>
     <row r="553" spans="1:10">
@@ -52967,11 +52967,11 @@
         <v>3</v>
       </c>
       <c r="I553" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J553" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ຕຸ້ຍ ບໍລິການສ້ອມແປງ','1','2','ທ່ານາ','','THU','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ຕຸ້ຍ ບໍລິການສ້ອມແປງ','1','2','ທ່ານາ','','THU','3',curdate());</v>
       </c>
     </row>
     <row r="554" spans="1:10">
@@ -53000,11 +53000,11 @@
         <v>3</v>
       </c>
       <c r="I554" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J554" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ. ຈິ້ມ ບໍລິການ','1','2','ບໍ່ໂອ','2056322859','THU','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ. ຈິ້ມ ບໍລິການ','1','2','ບໍ່ໂອ','2056322859','THU','3',curdate());</v>
       </c>
     </row>
     <row r="555" spans="1:10">
@@ -53033,11 +53033,11 @@
         <v>3</v>
       </c>
       <c r="I555" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J555" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0684','ຮ້ານ ສຸລິຍາ','1','2','ແກ້ງປາຢ້າງ','020 28444754','THU','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0684','ຮ້ານ ສຸລິຍາ','1','2','ແກ້ງປາຢ້າງ','020 28444754','THU','3',curdate());</v>
       </c>
     </row>
     <row r="556" spans="1:10">
@@ -53066,11 +53066,11 @@
         <v>3</v>
       </c>
       <c r="I556" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J556" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ລັດ','1','7','ສີເມືອງ','02055532388','FRI','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ລັດ','1','7','ສີເມືອງ','02055532388','FRI','3',curdate());</v>
       </c>
     </row>
     <row r="557" spans="1:10">
@@ -53099,11 +53099,11 @@
         <v>3</v>
       </c>
       <c r="I557" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J557" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ຈ່ອຍ','1','7','ທາດຂາວ','02078123011','FRI','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ຈ່ອຍ','1','7','ທາດຂາວ','02078123011','FRI','3',curdate());</v>
       </c>
     </row>
     <row r="558" spans="1:10">
@@ -53132,11 +53132,11 @@
         <v>3</v>
       </c>
       <c r="I558" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J558" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ສັງວານ','1','7','ດົງປ່າລານທົ່ງ','02077796958','FRI','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ສັງວານ','1','7','ດົງປ່າລານທົ່ງ','02077796958','FRI','3',curdate());</v>
       </c>
     </row>
     <row r="559" spans="1:10">
@@ -53165,11 +53165,11 @@
         <v>3</v>
       </c>
       <c r="I559" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J559" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ຈ່ອຍ','1','7','ບ. ວັດນາກ','02058822588','FRI','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ຈ່ອຍ','1','7','ບ. ວັດນາກ','02058822588','FRI','3',curdate());</v>
       </c>
     </row>
     <row r="560" spans="1:10">
@@ -53198,11 +53198,11 @@
         <v>3</v>
       </c>
       <c r="I560" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J560" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ງຽມທູ','1','7','ດອນກອຍ','02056324356','FRI','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ງຽມທູ','1','7','ດອນກອຍ','02056324356','FRI','3',curdate());</v>
       </c>
     </row>
     <row r="561" spans="1:10">
@@ -53231,11 +53231,11 @@
         <v>3</v>
       </c>
       <c r="I561" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J561" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ກິ','1','7','ດອນກອຍ','02056518866','FRI','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ກິ','1','7','ດອນກອຍ','02056518866','FRI','3',curdate());</v>
       </c>
     </row>
     <row r="562" spans="1:10">
@@ -53264,11 +53264,11 @@
         <v>3</v>
       </c>
       <c r="I562" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J562" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ສັກ','1','7','ດອນກອຍ','02055115022','FRI','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ສັກ','1','7','ດອນກອຍ','02055115022','FRI','3',curdate());</v>
       </c>
     </row>
     <row r="563" spans="1:10">
@@ -53297,11 +53297,11 @@
         <v>3</v>
       </c>
       <c r="I563" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J563" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0257','ປ້ຳ ພົນສັກດີ ບໍລິການ','1','8','ໂນນຫວາຍ','2028884625','FRI','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0257','ປ້ຳ ພົນສັກດີ ບໍລິການ','1','8','ໂນນຫວາຍ','2028884625','FRI','3',curdate());</v>
       </c>
     </row>
     <row r="564" spans="1:10">
@@ -53330,11 +53330,11 @@
         <v>3</v>
       </c>
       <c r="I564" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J564" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ນ.ລັດດາວວັນ','1','7','ໂພນປາເປົ້າ','02059492332','SAT','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ນ.ລັດດາວວັນ','1','7','ໂພນປາເປົ້າ','02059492332','SAT','3',curdate());</v>
       </c>
     </row>
     <row r="565" spans="1:10">
@@ -53363,11 +53363,11 @@
         <v>3</v>
       </c>
       <c r="I565" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J565" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ດ່ອງ','1','7','ໂພນປາເປົ້າ','02078201280','SAT','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ດ່ອງ','1','7','ໂພນປາເປົ້າ','02078201280','SAT','3',curdate());</v>
       </c>
     </row>
     <row r="566" spans="1:10">
@@ -53396,11 +53396,11 @@
         <v>3</v>
       </c>
       <c r="I566" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J566" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ບຸນມາ','1','7','ໂພນປາເປົ້າ','02097410462','SAT','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ບຸນມາ','1','7','ໂພນປາເປົ້າ','02097410462','SAT','3',curdate());</v>
       </c>
     </row>
     <row r="567" spans="1:10">
@@ -53429,11 +53429,11 @@
         <v>3</v>
       </c>
       <c r="I567" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J567" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ນ້ອຍ','1','7','ໂພນປາເປົ້າ','02056664964','SAT','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ນ້ອຍ','1','7','ໂພນປາເປົ້າ','02056664964','SAT','3',curdate());</v>
       </c>
     </row>
     <row r="568" spans="1:10">
@@ -53462,11 +53462,11 @@
         <v>3</v>
       </c>
       <c r="I568" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J568" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001','ຮ້ານ ທ.ຫລ້າ','1','7','ໂພນປ່າເປົ້າ','02055471515','SAT','3',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001','ຮ້ານ ທ.ຫລ້າ','1','7','ໂພນປ່າເປົ້າ','02055471515','SAT','3',curdate());</v>
       </c>
     </row>
     <row r="569" spans="1:10">
@@ -53495,11 +53495,11 @@
         <v>4</v>
       </c>
       <c r="I569" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J569" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0697','ຮ້ານ ໄລ','1','8','ຄຳສະຫວາດ','020 56996989','MON','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0697','ຮ້ານ ໄລ','1','8','ຄຳສະຫວາດ','020 56996989','MON','4',curdate());</v>
       </c>
     </row>
     <row r="570" spans="1:10">
@@ -53528,11 +53528,11 @@
         <v>4</v>
       </c>
       <c r="I570" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J570" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0720','ຮ້ານ ອັອດ','1','8','ຄຳສະຫວາດ','020 55475724','MON','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0720','ຮ້ານ ອັອດ','1','8','ຄຳສະຫວາດ','020 55475724','MON','4',curdate());</v>
       </c>
     </row>
     <row r="571" spans="1:10">
@@ -53561,11 +53561,11 @@
         <v>4</v>
       </c>
       <c r="I571" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J571" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-0473','ຮ້ານ ຊຳເຄ້','1','8','ຊຳເຄ້','020 98000800','MON','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-0473','ຮ້ານ ຊຳເຄ້','1','8','ຊຳເຄ້','020 98000800','MON','4',curdate());</v>
       </c>
     </row>
     <row r="572" spans="1:10">
@@ -53594,11 +53594,11 @@
         <v>4</v>
       </c>
       <c r="I572" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J572" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0723','ຮ້ານ ມົນ','1','8','ຊຳເຄ້','030 5805921','MON','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0723','ຮ້ານ ມົນ','1','8','ຊຳເຄ້','030 5805921','MON','4',curdate());</v>
       </c>
     </row>
     <row r="573" spans="1:10">
@@ -53627,11 +53627,11 @@
         <v>4</v>
       </c>
       <c r="I573" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J573" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0696','ຮ້ານ ສຸລິຍາ','1','8','ຫົວຂວາ','020 55555749','MON','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0696','ຮ້ານ ສຸລິຍາ','1','8','ຫົວຂວາ','020 55555749','MON','4',curdate());</v>
       </c>
     </row>
     <row r="574" spans="1:10">
@@ -53660,11 +53660,11 @@
         <v>4</v>
       </c>
       <c r="I574" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J574" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0718','ຮ້ານ ຕ້ອຍ','1','8','ຫົວຂວາ','020 97612222','MON','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0718','ຮ້ານ ຕ້ອຍ','1','8','ຫົວຂວາ','020 97612222','MON','4',curdate());</v>
       </c>
     </row>
     <row r="575" spans="1:10">
@@ -53693,11 +53693,11 @@
         <v>4</v>
       </c>
       <c r="I575" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J575" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0716','ຮ້ານ ຕົ້ນ','1','8','ຊຽງດາ','305248695','MON','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0716','ຮ້ານ ຕົ້ນ','1','8','ຊຽງດາ','305248695','MON','4',curdate());</v>
       </c>
     </row>
     <row r="576" spans="1:10">
@@ -53726,11 +53726,11 @@
         <v>4</v>
       </c>
       <c r="I576" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J576" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0717','ຮ້ານ ມີໄຊ ','1','8','ຊຽງດາ','2055881152','MON','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0717','ຮ້ານ ມີໄຊ ','1','8','ຊຽງດາ','2055881152','MON','4',curdate());</v>
       </c>
     </row>
     <row r="577" spans="1:10" ht="19.5" thickBot="1">
@@ -53759,11 +53759,11 @@
         <v>4</v>
       </c>
       <c r="I577" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J577" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0719','ຮ້ານ ພັນລາ','1','8','ນາໄຊ','020 54660636','MON','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0719','ຮ້ານ ພັນລາ','1','8','ນາໄຊ','020 54660636','MON','4',curdate());</v>
       </c>
     </row>
     <row r="578" spans="1:10">
@@ -53792,11 +53792,11 @@
         <v>4</v>
       </c>
       <c r="I578" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J578" t="str">
         <f t="shared" si="8"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0707','ຮ້ານ ຈິດປະສົງ','1','2','ສາລະຄຳ','020 56996799','TUE','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0707','ຮ້ານ ຈິດປະສົງ','1','2','ສາລະຄຳ','020 56996799','TUE','4',curdate());</v>
       </c>
     </row>
     <row r="579" spans="1:10">
@@ -53825,11 +53825,11 @@
         <v>4</v>
       </c>
       <c r="I579" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J579" t="str">
         <f t="shared" ref="J579:J615" si="9">"insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('"&amp;I579&amp;"','"&amp;A579&amp;"','"&amp;B579&amp;"','"&amp;D579&amp;"','"&amp;E579&amp;"','"&amp;F579&amp;"','"&amp;G579&amp;"','"&amp;C579&amp;"','"&amp;H579&amp;"',curdate());"</f>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0708','ຮ້ານ ຢົງຢີ','1','2','ສາລະຄຳ','020 95456834','TUE','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0708','ຮ້ານ ຢົງຢີ','1','2','ສາລະຄຳ','020 95456834','TUE','4',curdate());</v>
       </c>
     </row>
     <row r="580" spans="1:10">
@@ -53858,11 +53858,11 @@
         <v>4</v>
       </c>
       <c r="I580" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J580" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0692','ຮ້ານ ບູນສົງ','1','2','ສາລະຄຳ','020 59555997','TUE','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0692','ຮ້ານ ບູນສົງ','1','2','ສາລະຄຳ','020 59555997','TUE','4',curdate());</v>
       </c>
     </row>
     <row r="581" spans="1:10">
@@ -53891,11 +53891,11 @@
         <v>4</v>
       </c>
       <c r="I581" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J581" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0704','ຮ້ານ ເຢີຢ່າງ','1','2','ສາລະຄຳ','020 95915386','TUE','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0704','ຮ້ານ ເຢີຢ່າງ','1','2','ສາລະຄຳ','020 95915386','TUE','4',curdate());</v>
       </c>
     </row>
     <row r="582" spans="1:10">
@@ -53924,11 +53924,11 @@
         <v>4</v>
       </c>
       <c r="I582" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J582" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0701','ຮ້ານ ຍັງ','1','2','ນາໄຫ','020 58882502','TUE','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0701','ຮ້ານ ຍັງ','1','2','ນາໄຫ','020 58882502','TUE','4',curdate());</v>
       </c>
     </row>
     <row r="583" spans="1:10">
@@ -53957,11 +53957,11 @@
         <v>4</v>
       </c>
       <c r="I583" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J583" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0702','ຮ້ານ ເສິຍ','1','2','ນາໄຫ','020 59966373','TUE','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0702','ຮ້ານ ເສິຍ','1','2','ນາໄຫ','020 59966373','TUE','4',curdate());</v>
       </c>
     </row>
     <row r="584" spans="1:10">
@@ -53990,11 +53990,11 @@
         <v>4</v>
       </c>
       <c r="I584" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J584" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ອູ່ສ້ອມແປງລົດ ສີວິໄລ','1','6','ນາແຮ່','2055512428','WED','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ອູ່ສ້ອມແປງລົດ ສີວິໄລ','1','6','ນາແຮ່','2055512428','WED','4',curdate());</v>
       </c>
     </row>
     <row r="585" spans="1:10">
@@ -54023,11 +54023,11 @@
         <v>4</v>
       </c>
       <c r="I585" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J585" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-','ຮ້ານ ວົງປະເສີດ ອາໄຫຼ່','1','6','ນາແຮ່','2022299986','WED','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-','ຮ້ານ ວົງປະເສີດ ອາໄຫຼ່','1','6','ນາແຮ່','2022299986','WED','4',curdate());</v>
       </c>
     </row>
     <row r="586" spans="1:10">
@@ -54056,11 +54056,11 @@
         <v>4</v>
       </c>
       <c r="I586" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J586" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0418','ຮ້ານ PPS ປະດັບຍົນ','1','6','ທົ່ງປົ່ງ','309646505','WED','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0418','ຮ້ານ PPS ປະດັບຍົນ','1','6','ທົ່ງປົ່ງ','309646505','WED','4',curdate());</v>
       </c>
     </row>
     <row r="587" spans="1:10">
@@ -54089,11 +54089,11 @@
         <v>4</v>
       </c>
       <c r="I587" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J587" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ອຸດົມ ການຊ່າງ','1','6','ໜອງໜ້ຽວ','2023228282','WED','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ອຸດົມ ການຊ່າງ','1','6','ໜອງໜ້ຽວ','2023228282','WED','4',curdate());</v>
       </c>
     </row>
     <row r="588" spans="1:10">
@@ -54122,11 +54122,11 @@
         <v>4</v>
       </c>
       <c r="I588" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J588" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ຄຳບອນ ສ້ອມແປງ','1','6','ໜອງໜ້ຽວ','2056668788','WED','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ຄຳບອນ ສ້ອມແປງ','1','6','ໜອງໜ້ຽວ','2056668788','WED','4',curdate());</v>
       </c>
     </row>
     <row r="589" spans="1:10">
@@ -54155,11 +54155,11 @@
         <v>4</v>
       </c>
       <c r="I589" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J589" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ໂດມ້ອນ ບໍລິການ','1','6','ໂນນແກ້ວ','2022222885','WED','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ໂດມ້ອນ ບໍລິການ','1','6','ໂນນແກ້ວ','2022222885','WED','4',curdate());</v>
       </c>
     </row>
     <row r="590" spans="1:10">
@@ -54188,11 +54188,11 @@
         <v>4</v>
       </c>
       <c r="I590" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J590" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-','ຮ້ານ ພີພີຈະເລີນຊັບ ອາໄຫຼ່','1','6','ເກົ້າລ້ຽວ','2028160000','WED','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-','ຮ້ານ ພີພີຈະເລີນຊັບ ອາໄຫຼ່','1','6','ເກົ້າລ້ຽວ','2028160000','WED','4',curdate());</v>
       </c>
     </row>
     <row r="591" spans="1:10">
@@ -54221,11 +54221,11 @@
         <v>4</v>
       </c>
       <c r="I591" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J591" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-','ຮ້ານ ທະວີໂຊກໄຊ ອາໄຫຼ່','1','6','ເກົ້າລ້ຽວ','2056999284','WED','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-','ຮ້ານ ທະວີໂຊກໄຊ ອາໄຫຼ່','1','6','ເກົ້າລ້ຽວ','2056999284','WED','4',curdate());</v>
       </c>
     </row>
     <row r="592" spans="1:10">
@@ -54254,11 +54254,11 @@
         <v>4</v>
       </c>
       <c r="I592" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J592" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-','ຮ້ານ ນົກນິຍົມ ອາໄຫຼ່','1','6','ສີໄຄ','2055694204','WED','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-','ຮ້ານ ນົກນິຍົມ ອາໄຫຼ່','1','6','ສີໄຄ','2055694204','WED','4',curdate());</v>
       </c>
     </row>
     <row r="593" spans="1:10">
@@ -54287,11 +54287,11 @@
         <v>4</v>
       </c>
       <c r="I593" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J593" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ແອ ດວງພະຈັນ','1','6','ສີໄຄ','2054198124','WED','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ແອ ດວງພະຈັນ','1','6','ສີໄຄ','2054198124','WED','4',curdate());</v>
       </c>
     </row>
     <row r="594" spans="1:10">
@@ -54320,11 +54320,11 @@
         <v>4</v>
       </c>
       <c r="I594" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J594" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-','ບໍລິສັດ ສິດທິໂຊກ ການຄ້າ','1','6','ເຕສອງ','212126660','THU','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-','ບໍລິສັດ ສິດທິໂຊກ ການຄ້າ','1','6','ເຕສອງ','212126660','THU','4',curdate());</v>
       </c>
     </row>
     <row r="595" spans="1:10">
@@ -54353,11 +54353,11 @@
         <v>4</v>
       </c>
       <c r="I595" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J595" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ເພັດພູທອນ ສ້ອມແປງ','1','6','ໜອງດ້ວງ','2096288890','THU','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ເພັດພູທອນ ສ້ອມແປງ','1','6','ໜອງດ້ວງ','2096288890','THU','4',curdate());</v>
       </c>
     </row>
     <row r="596" spans="1:10">
@@ -54386,11 +54386,11 @@
         <v>4</v>
       </c>
       <c r="I596" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J596" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ບຸນເລີດ ອາໄຫຼ່','1','6','ໜອງບົວທອງ','2098111988','THU','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ບຸນເລີດ ອາໄຫຼ່','1','6','ໜອງບົວທອງ','2098111988','THU','4',curdate());</v>
       </c>
     </row>
     <row r="597" spans="1:10">
@@ -54419,11 +54419,11 @@
         <v>4</v>
       </c>
       <c r="I597" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J597" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ດອນ ອາໄຫຼ່','1','6','ໜອງບົວທອງ','2055010108','THU','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ດອນ ອາໄຫຼ່','1','6','ໜອງບົວທອງ','2055010108','THU','4',curdate());</v>
       </c>
     </row>
     <row r="598" spans="1:10">
@@ -54452,11 +54452,11 @@
         <v>4</v>
       </c>
       <c r="I598" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J598" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ກັນຍາ ສ້ອມແປງ','1','6','ດົງນາໂຊກ','2054732972','THU','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ກັນຍາ ສ້ອມແປງ','1','6','ດົງນາໂຊກ','2054732972','THU','4',curdate());</v>
       </c>
     </row>
     <row r="599" spans="1:10">
@@ -54485,11 +54485,11 @@
         <v>4</v>
       </c>
       <c r="I599" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J599" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ຢູ ສ້ອມແປງ','1','6','ດົງນາໂຊກ','2099744873','THU','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ຢູ ສ້ອມແປງ','1','6','ດົງນາໂຊກ','2099744873','THU','4',curdate());</v>
       </c>
     </row>
     <row r="600" spans="1:10">
@@ -54518,11 +54518,11 @@
         <v>4</v>
       </c>
       <c r="I600" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J600" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ສີຟອງ ສ້ອມແປງ','1','6','ດົງນາໂຊກ','2029333002','THU','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ສີຟອງ ສ້ອມແປງ','1','6','ດົງນາໂຊກ','2029333002','THU','4',curdate());</v>
       </c>
     </row>
     <row r="601" spans="1:10">
@@ -54551,11 +54551,11 @@
         <v>4</v>
       </c>
       <c r="I601" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J601" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ອ. ຄຳປ້ອມ  ອາໄຫຼ່','1','6','ນາແຮ່','2056668788','FRI','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ອ. ຄຳປ້ອມ  ອາໄຫຼ່','1','6','ນາແຮ່','2056668788','FRI','4',curdate());</v>
       </c>
     </row>
     <row r="602" spans="1:10">
@@ -54584,11 +54584,11 @@
         <v>4</v>
       </c>
       <c r="I602" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J602" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ເຄພີ  ອາໄຫຼ່','1','6','ນາແຮ່','2055713131','FRI','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ເຄພີ  ອາໄຫຼ່','1','6','ນາແຮ່','2055713131','FRI','4',curdate());</v>
       </c>
     </row>
     <row r="603" spans="1:10">
@@ -54617,11 +54617,11 @@
         <v>4</v>
       </c>
       <c r="I603" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J603" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-','ຮ້ານ ນຸດ ອາໄຫຼ່','1','6','ນາແຮ່','2023274471','FRI','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-','ຮ້ານ ນຸດ ອາໄຫຼ່','1','6','ນາແຮ່','2023274471','FRI','4',curdate());</v>
       </c>
     </row>
     <row r="604" spans="1:10">
@@ -54650,11 +54650,11 @@
         <v>4</v>
       </c>
       <c r="I604" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J604" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ລ້ານ ສ້ອມແປງ','1','4','ສີເກີດ','2022438774','FRI','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ລ້ານ ສ້ອມແປງ','1','4','ສີເກີດ','2022438774','FRI','4',curdate());</v>
       </c>
     </row>
     <row r="605" spans="1:10">
@@ -54683,11 +54683,11 @@
         <v>4</v>
       </c>
       <c r="I605" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J605" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ຕຸ່ນ ສ້ອມແປງ','1','4','ສີເກີດ','2055596955','FRI','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ຕຸ່ນ ສ້ອມແປງ','1','4','ສີເກີດ','2055596955','FRI','4',curdate());</v>
       </c>
     </row>
     <row r="606" spans="1:10">
@@ -54716,11 +54716,11 @@
         <v>4</v>
       </c>
       <c r="I606" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J606" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ໄຊຊະນະ ສ້ອມແປງ','1','6','ໂນນແກ້ວ','2055713906','FRI','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ໄຊຊະນະ ສ້ອມແປງ','1','6','ໂນນແກ້ວ','2055713906','FRI','4',curdate());</v>
       </c>
     </row>
     <row r="607" spans="1:10">
@@ -54749,11 +54749,11 @@
         <v>4</v>
       </c>
       <c r="I607" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J607" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ບຸນເລື່ອນ ສ້ອມແປງ','1','6','ໂນນຂີ້ເຫຼັກ','2052969822','FRI','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ບຸນເລື່ອນ ສ້ອມແປງ','1','6','ໂນນຂີ້ເຫຼັກ','2052969822','FRI','4',curdate());</v>
       </c>
     </row>
     <row r="608" spans="1:10">
@@ -54782,11 +54782,11 @@
         <v>4</v>
       </c>
       <c r="I608" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J608" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ອ. ມີ  ສ້ອມແປງ','1','6','9ລ້ຽວ','2055557413','FRI','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ອ. ມີ  ສ້ອມແປງ','1','6','9ລ້ຽວ','2055557413','FRI','4',curdate());</v>
       </c>
     </row>
     <row r="609" spans="1:10" ht="19.5" thickBot="1">
@@ -54815,11 +54815,11 @@
         <v>4</v>
       </c>
       <c r="I609" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J609" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ອ. ຈ່ອຍ  ສ້ອມແປງ','1','6','9ລ້ຽວ','2098905338','FRI','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ອ. ຈ່ອຍ  ສ້ອມແປງ','1','6','9ລ້ຽວ','2098905338','FRI','4',curdate());</v>
       </c>
     </row>
     <row r="610" spans="1:10">
@@ -54848,11 +54848,11 @@
         <v>4</v>
       </c>
       <c r="I610" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J610" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001','ຮ້ານ ຮຸ່ງອາລຸນ ຢວນຢາງ','1','9','ໜອງພະຍາ','2054406540','SAT','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001','ຮ້ານ ຮຸ່ງອາລຸນ ຢວນຢາງ','1','9','ໜອງພະຍາ','2054406540','SAT','4',curdate());</v>
       </c>
     </row>
     <row r="611" spans="1:10">
@@ -54881,11 +54881,11 @@
         <v>4</v>
       </c>
       <c r="I611" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J611" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ມຸກດາ ປະດັບຍົນ','1','9','ພະຂາວ','2096499929','SAT','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ມຸກດາ ປະດັບຍົນ','1','9','ພະຂາວ','2096499929','SAT','4',curdate());</v>
       </c>
     </row>
     <row r="612" spans="1:10">
@@ -54914,11 +54914,11 @@
         <v>4</v>
       </c>
       <c r="I612" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J612" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0693','ຮ້ານ ທະວີໄຊ','1','8','ໂພນເຄັງ','020 55679801','SAT','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0693','ຮ້ານ ທະວີໄຊ','1','8','ໂພນເຄັງ','020 55679801','SAT','4',curdate());</v>
       </c>
     </row>
     <row r="613" spans="1:10">
@@ -54947,11 +54947,11 @@
         <v>4</v>
       </c>
       <c r="I613" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J613" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-0710','ຮ້ານ ແກ້ວພອນໄຊ','1','8','ບ້ານຝາຍ','021 414737','SAT','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-0710','ຮ້ານ ແກ້ວພອນໄຊ','1','8','ບ້ານຝາຍ','021 414737','SAT','4',curdate());</v>
       </c>
     </row>
     <row r="614" spans="1:10">
@@ -54980,11 +54980,11 @@
         <v>4</v>
       </c>
       <c r="I614" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J614" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','I-586-001-','ຮ້ານ ກວາງ ສ້ອມແປງ','1','1','ດົງປາແຫຼບ','2096962325','SAT','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','I-586-001-','ຮ້ານ ກວາງ ສ້ອມແປງ','1','1','ດົງປາແຫຼບ','2096962325','SAT','4',curdate());</v>
       </c>
     </row>
     <row r="615" spans="1:10">
@@ -55013,11 +55013,11 @@
         <v>4</v>
       </c>
       <c r="I615" s="233">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J615" t="str">
         <f t="shared" si="9"/>
-        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('36','S-586-001-0021','ຮ້ານ ລ້າງອັດສີດ','1','1','ດົງປ່າແຫລບ','55663353','SAT','4',curdate());</v>
+        <v>insert into tbl_visit_dairy (user_id,cus_code,c_shop_name,provinces,district,village_name,phone_number,day_visit,week_visit,register_date) values ('50','S-586-001-0021','ຮ້ານ ລ້າງອັດສີດ','1','1','ດົງປ່າແຫລບ','55663353','SAT','4',curdate());</v>
       </c>
     </row>
   </sheetData>
